--- a/Data sources.xlsx
+++ b/Data sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim\Lambeth Council\State of the Borough - Working folder 2023\State of the Borough - flexEdition\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lambeth.sharepoint.com/sites/StateoftheBorough/Shared Documents/General/Working folder 2023/State of the Borough - flexEdition/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC0253-54B3-4021-92F4-48FB26A7D2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1440" documentId="13_ncr:1_{770093B1-AED3-49DB-9954-741B278843BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF31123-8550-4BA2-A39F-C47DE09B7D1E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="400">
   <si>
     <t>Number</t>
   </si>
@@ -205,15 +205,7 @@
     <t>This graph shows the working age population for Lambeth, London, and England, i.e. people who are aged 16-64 years old from 2020 mid-year population estimates. Lambeth has a higher percentage of people of working age (about 74%) than both London (66%) and England (~62%). In all areas, there are very slighly more men of working age than women.</t>
   </si>
   <si>
-    <t>Employment by occupation</t>
-  </si>
-  <si>
     <t>https://www.nomisweb.co.uk/query/construct/summary.asp?reset=yes&amp;mode=construct&amp;dataset=17&amp;version=0&amp;anal=5&amp;initsel=geog:1946157253,2013265927,2092957699</t>
-  </si>
-  <si>
-    <t>This graph shows the % of working Lambeth residents who are employed in particular job types compared with London and England.
-Lambeth has a higher percentage of managers/directors/senior officials (16.5%), professional occupations (39%), and associated professional occupations (25%) than London (12, 34, and 17% respectively) and England (11, 26, and 15% respectively). Lambeth has a much lower proportion of residents who work in other areas compared to London and England.
-Missing values indicate that there were too few survey respondents to get an estimate of the % of people working in that category.</t>
   </si>
   <si>
     <t>Types of industry</t>
@@ -263,21 +255,9 @@
     <t>This graph shows the percentage of workers earning less than the London Living Wage (LLW). Lambeth has a higher percentage of people earning less than the LLW (18%) compared to London (13.5%) and England (12.5%).</t>
   </si>
   <si>
-    <t>Unemployment rate</t>
-  </si>
-  <si>
     <t>https://www.nomisweb.co.uk/reports/lmp/la/1946157253/report.aspx</t>
   </si>
   <si>
-    <t>https://data.london.gov.uk/dataset/model-based-unemployment-estimates</t>
-  </si>
-  <si>
-    <t>Unemployment rate / Claimant count rate</t>
-  </si>
-  <si>
-    <t>This graph shows the overall unemployment rate from 2018 to 2021 in Lambeth, London, and England. In Lambeth, the unemployment rate has fluctuated between just over 6% in 2018 to just under 5% in 2021. Although there was a small spike in unemployment in 2020, unemployment in Lambeth settled lower in 2021 than London (~5.5%). England has had a slightly lower unemployment rate throughout these years than Lambeth or London.</t>
-  </si>
-  <si>
     <t>Unemployment by sex and ethnicity</t>
   </si>
   <si>
@@ -288,9 +268,6 @@
   </si>
   <si>
     <t>These graphs show the unemployment rate by ethnic group and sex in 2022 in Lambeth, London, and England. Lambeth has the lowest unemployment rate overall (~3.5%), but has the largest disparity in terms of unemployment for ethnic minority groups (about 4% higher unemployment rate than for all working age people) and women (a 1% higher unemployment rate than for all working age people) than for London and England (between ~1.5 and ~3% for ethnic minorities, around 0% for women).</t>
-  </si>
-  <si>
-    <t>Claimant count</t>
   </si>
   <si>
     <t>Claimant count rate (including Universal Credit and Job Seeker's Allowance)</t>
@@ -339,25 +316,10 @@
     <t>This graph shows the non-domestic rates (NDR) income (paid by businesses to local councils) received by Lambeth and all London councils as a % of 2019 levels. In both areas, the amount of NDR income dropped significantly to ~50% of 2019 income, and recovered somewhat to ~80% of 2019 levels in 2021. This change is significantly due to rates relief given to businesses during the COVID pandemic.</t>
   </si>
   <si>
-    <t>Financial resilience introduction</t>
-  </si>
-  <si>
-    <t>Financial resilience</t>
-  </si>
-  <si>
-    <t>Financial resilience - Resident survey</t>
-  </si>
-  <si>
     <t>London Borough of Lambeth</t>
   </si>
   <si>
     <t>https://www.lambeth.gov.uk/lambeth-residents-survey-202223</t>
-  </si>
-  <si>
-    <t>Borough-wide responses to Financial resilience questions from the latest annual Resident survey</t>
-  </si>
-  <si>
-    <t>These four graphs show the responses of Lambeth residents to cost of Financial resilience-related questions (conducted in autumn 2022). Almost half of respondents reported that their financial circumstances. About 27% of Lambeth residents think it will be at least fairly difficult to pay for food in the coming year, almost half expect it will be at least fairly difficult to pay for energy, and just under 40% expect it will be at least fairly difficult to pay for their rent/mortgage.</t>
   </si>
   <si>
     <t>Poverty rate</t>
@@ -608,11 +570,6 @@
     <t>Borough-wide responses to wellbeing questions from the latest annual Resident survey</t>
   </si>
   <si>
-    <t>These graphs show the responses to questions related to wellbeing from the residents survey (excluding 'don't know' responses). In response to the first question, 80% of respondents gave a score of 7 or above, indicating that the majority of respondents feel that things in their life are worthwhile. 4.2% responded with 4 or less, suggesting that a significant number of residents do not feel that things in their life are worthwhile.
-More respondents were negative towards the question about how anxious they felt yesterday. Just under 25% of repondents replied with 7 or above, and only 52% of people gave a score of 4 or less. This indicates that a significant proportion of residents feel anxiety at least some of the time across the borough, and many a high degree of anxiety.
-Six percent of respondents said that their health was bad or very bad, while 72% said it was good or very good.</t>
-  </si>
-  <si>
     <t>Personal wellbeing - Happiness</t>
   </si>
   <si>
@@ -677,9 +634,6 @@
   </si>
   <si>
     <t>https://fingertips.phe.org.uk/physical-activity#page/4/gid/1938133001/pat/15/par/E92000001/ati/402/are/E09000022/iid/219/age/1/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0</t>
-  </si>
-  <si>
-    <t>The percentage of patients with established hypertension, as recorded on practice disease registers (proportion of total list size).</t>
   </si>
   <si>
     <t>The graph shows the percentage of patients with established hypertension, as recorded on practice disease registers (proportion of total list size) from 2013 to 2022. No data is available for London. Lambeth has had a lower prevalence than England, and currently has a prevalence of 9%.</t>
@@ -917,11 +871,6 @@
     <t>Responses to questions related to community safety and the police from the latest resident survey (2022)</t>
   </si>
   <si>
-    <t>These graphs show responses to questions related to Lambeth residents' feelings about safety and the police in their local area (excluding don't know answers). 
-92% of respondents felt that their local area was safe during the day, and 63% felt it was safe at night. 10.5% of respondents felt that their local area was not at all safe at night. Additionally, over 7% of respondents felt that hate crime or sexual harrassment were a big problem in their local area (~21% said it was a fairly big problem).
-On the question of having confidence in police, respondents were quite evenly split; 34% of respondents agreed with the statement, while 33% disagreed.</t>
-  </si>
-  <si>
     <t>Traffic incidents</t>
   </si>
   <si>
@@ -1252,6 +1201,52 @@
     <t xml:space="preserve">Lambeth 2030 sets out the vision for Lambeth to be a clean, vibrant and lifelong borough, where people can feel safe, have the best conditions to grow up and age well, and live healthier, happier lives.  
 We know Lambeth is a borough of great diversity; our history has been shaped by radicals and reformers, and for hundreds of years, Lambeth has welcomed people from all around the world – providing sanctuary and a place they can call home. 
 We know that residents want to feel proud of their neighbourhoods, building on the strong sense of community across the borough. Residents are concerned with cleanliness and waste, crime and safety, and having accessible parks and open spaces to connect with one another. Residents also want to feel satisfied with the way the Council operates, being communicated with effectively and seeing value for money. </t>
+  </si>
+  <si>
+    <t>Unemployment benefit claimants</t>
+  </si>
+  <si>
+    <t>Cost of living introduction</t>
+  </si>
+  <si>
+    <t>Cost of living</t>
+  </si>
+  <si>
+    <t>Cost of living - Resident survey</t>
+  </si>
+  <si>
+    <t>Borough-wide responses to Cost of living questions from the latest annual Resident survey</t>
+  </si>
+  <si>
+    <t>These four graphs show the responses of Lambeth residents to cost of Cost of living-related questions (conducted in autumn 2022). Almost half of respondents reported that their financial circumstances got worse in the past year. About 27% of Lambeth residents think it will be at least fairly difficult to pay for food in the coming year, almost half expect it will be at least fairly difficult to pay for energy, and just under 40% expect it will be at least fairly difficult to pay for their rent/mortgage.</t>
+  </si>
+  <si>
+    <r>
+      <t>These graphs show responses to questions related to Lambeth residents' feelings about safety and the police in their local area (excluding don't know answers). 
+92% of respondents felt that their local area was safe during the day, and 63% felt it was safe at night. 10.5% of respondents felt that their local area was not at all safe at night. People feel their area is less safe now than in 2020. 10.5% of residents feel that their local area is not at all safe at night, which has increased from only 4.8% in 2020.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Additionally, over 7% of respondents felt that hate crime or sexual harrassment were a big problem in their local area (~21% said it was a fairly big problem).
+On the question of having confidence in police, respondents were quite evenly split; 34% of respondents agreed with the statement, while 33% disagreed.</t>
+    </r>
   </si>
   <si>
     <t>The Health and Wellbeing section of State of the Borough report summarises the health of people living Lambeth by bringing together Office for Health Improvement and Dipartites (OHID) data and knowledge with information from other sources to give a broad picture of the health of people in Lambeth today.
@@ -1286,12 +1281,56 @@
 -	Health and wellbeing strategy (include weblink)
 -	Health and Care Plan (include weblink) This section has a focus on starting well, living well and aging well in Lambeth, London and England.</t>
   </si>
+  <si>
+    <t>These graphs show the responses to questions related to wellbeing from the residents survey (excluding 'don't know' responses). In response to the first question, 80% of respondents gave a score of 7 or above, indicating that the majority of respondents feel that things in their life are worthwhile. 4.2% responded with 4 or less, suggesting that a significant number of residents do not feel that things in their life are worthwhile.
+More respondents were negative towards the question about how anxious they felt yesterday. Just under 25% of repondents replied with 7 or above, and only 52% of people gave a score of 4 or less. This indicates that a significant proportion of residents feel anxiety at least some of the time across the borough, and many a high degree of anxiety.
+Six percent of respondents said that their health was bad or very bad, while 72% said it was good or very good.</t>
+  </si>
+  <si>
+    <t>The percentage of patients with established hypertension, as recorded on practice disease registers (proportion of total list size)</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/search/Diabetes#page/4/gid/1/pat/6/par/E12000007/ati/402/are/E09000022/iid/241/age/187/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0</t>
+  </si>
+  <si>
+    <t>The percentage of patients aged 17 or over with diabetes mellitus, as recorded on practice disease registers</t>
+  </si>
+  <si>
+    <t>The graph shows the percentage of patients aged 17 or over with diabetes mellitus, as recorded on practice disease registers from 2012 to 2022. Lambeth (5.5%) is below the London (6.8%) and national average (7.3%), but has followed the overall increasing trend for 2012 to 2016. Lambeth has leveled off from 2016 to 2022 at around its current value.</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/search/depression#page/4/gid/1/pat/6/par/E12000007/ati/402/are/E09000022/iid/848/age/168/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0</t>
+  </si>
+  <si>
+    <t>the estimated number of people with depression recorded on the practice register as a proportion of the practice list size, aged 18 years or over, allocated to a local authority boundary using the postcode of the practice</t>
+  </si>
+  <si>
+    <t>The graph shows the estimated number of people with depression recorded on the practice register as a proportion of the practice list size, aged 18 years or over, allocated to a local authority boundary using the postcode of the practice from 2009 to 2022. Data for 2009 to 2013 is not available for Lambeth nor London. Across all three regions, the rates of depression has almost doubled since 2013. Lambeth is at 10%, which is greater than London (9.0%) and less than England (13%).</t>
+  </si>
+  <si>
+    <t>Coronary Heart Disease</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/search/chd#page/4/gid/1/pat/6/ati/402/are/E09000022/iid/273/age/1/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1</t>
+  </si>
+  <si>
+    <t>The percentage of patients with coronary heart disease (CHD), as recorded on practice disease register</t>
+  </si>
+  <si>
+    <t>The graph shows the percentage of patients with coronary heart disease (CHD), as recorded on practice disease register from 2009 to 2022. Data for 2009 to 2012 is not available for Lambeth nor London. Lambeth (1.2%) has lower rates than London (1.9%) and England (3.0%). All three regions have exhibited a slow and steady decline in CHD rates since 2012.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1388,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1392,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1466,6 +1511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1747,31 +1793,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I44" zoomScale="78" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="8"/>
-    <col min="2" max="2" width="17.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="34.81640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="97.1796875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="59.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="29.81640625" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="10"/>
+    <col min="1" max="1" width="8.77734375" style="8"/>
+    <col min="2" max="2" width="17.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="34.77734375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="97.21875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="59.5546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="29.77734375" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -1823,7 +1869,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="13"/>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I63" si="0">LOWER(SUBSTITUTE(C2," ","-"))</f>
+        <f t="shared" ref="I2:I41" si="0">LOWER(SUBSTITUTE(C2," ","-"))</f>
         <v>introduction</v>
       </c>
       <c r="J2" s="7" t="str">
@@ -1834,7 +1880,7 @@
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1852,14 +1898,14 @@
         <v>key-demographics-introduction</v>
       </c>
       <c r="J3" s="7" t="str">
-        <f t="shared" ref="J3:J44" si="1">_xlfn.CONCAT("#",I3)</f>
+        <f t="shared" ref="J3:J41" si="1">_xlfn.CONCAT("#",I3)</f>
         <v>#key-demographics-introduction</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1896,7 +1942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1930,7 +1976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1964,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1998,7 +2044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2032,7 +2078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2066,7 +2112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2100,7 +2146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2134,7 +2180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2168,7 +2214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -2202,7 +2248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2219,7 +2265,7 @@
         <v>#jobs-earnings-and-businesses-introduction</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2256,7 +2302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2264,7 +2310,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10">
         <v>2022</v>
@@ -2272,28 +2318,26 @@
       <c r="E16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>employment-by-occupation</v>
+        <v>types-of-industry</v>
       </c>
       <c r="J16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#employment-by-occupation</v>
+        <v>#types-of-industry</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2301,34 +2345,36 @@
         <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="10">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="10" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>types-of-industry</v>
+        <v>qualifications</v>
       </c>
       <c r="J17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#types-of-industry</v>
+        <v>#qualifications</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2336,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="10">
         <v>2021</v>
@@ -2344,28 +2390,28 @@
       <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>64</v>
+      <c r="F18" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qualifications</v>
+        <v>weekly-earnings-by-sex</v>
       </c>
       <c r="J18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#qualifications</v>
+        <v>#weekly-earnings-by-sex</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2373,36 +2419,33 @@
         <v>49</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="G19" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>weekly-earnings-by-sex</v>
+        <v>earning-a-living-wage</v>
       </c>
       <c r="J19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#weekly-earnings-by-sex</v>
+        <v>#earning-a-living-wage</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -2410,7 +2453,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10">
         <v>2022</v>
@@ -2418,25 +2461,28 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F20" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="G20" s="14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>earning-a-living-wage</v>
+        <v>unemployment-by-sex-and-ethnicity</v>
       </c>
       <c r="J20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#earning-a-living-wage</v>
+        <v>#unemployment-by-sex-and-ethnicity</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2444,7 +2490,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="D21" s="10">
         <v>2022</v>
@@ -2453,27 +2499,27 @@
         <v>16</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>unemployment-rate</v>
+        <v>unemployment-benefit-claimants</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#unemployment-rate</v>
+        <f>_xlfn.CONCAT("#",I21)</f>
+        <v>#unemployment-benefit-claimants</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -2484,33 +2530,30 @@
         <v>79</v>
       </c>
       <c r="D22" s="10">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>unemployment-by-sex-and-ethnicity</v>
+        <v>distance-to-work</v>
       </c>
       <c r="J22" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#unemployment-by-sex-and-ethnicity</v>
+        <v>#distance-to-work</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2518,36 +2561,36 @@
         <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="10">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>75</v>
+      <c r="F23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>claimant-count</v>
+        <v>business-creation-and-closure-rate</v>
       </c>
       <c r="J23" s="7" t="str">
-        <f>_xlfn.CONCAT("#",I23)</f>
-        <v>#claimant-count</v>
+        <f t="shared" si="1"/>
+        <v>#business-creation-and-closure-rate</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -2555,2716 +2598,2703 @@
         <v>49</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="G24" s="14" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>distance-to-work</v>
+        <v>non-domestic-rate-collection</v>
       </c>
       <c r="J24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#distance-to-work</v>
+        <v>#non-domestic-rate-collection</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2021</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="I25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>business-creation-and-closure-rate</v>
+        <v>cost-of-living-introduction</v>
       </c>
       <c r="J25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#business-creation-and-closure-rate</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>#cost-of-living-introduction</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>380</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="D26" s="10">
         <v>2022</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="I26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>non-domestic-rate-collection</v>
+        <v>cost-of-living---resident-survey</v>
       </c>
       <c r="J26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#non-domestic-rate-collection</v>
+        <v>#cost-of-living---resident-survey</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
+      <c r="B27" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>financial-resilience-introduction</v>
+        <v>poverty-rate</v>
       </c>
       <c r="J27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#financial-resilience-introduction</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>#poverty-rate</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2021</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="G28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>financial-resilience---resident-survey</v>
+        <v>children-in-low-income-households</v>
       </c>
       <c r="J28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#financial-resilience---resident-survey</v>
+        <f t="shared" ref="J28" si="2">_xlfn.CONCAT("#",I28)</f>
+        <v>#children-in-low-income-households</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="G29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2020</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>poverty-rate</v>
+        <v>pension-credit</v>
       </c>
       <c r="J29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#poverty-rate</v>
+        <f t="shared" ref="J29" si="3">_xlfn.CONCAT("#",I29)</f>
+        <v>#pension-credit</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10">
         <v>2021</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>children-in-low-income-households</v>
+        <v>census-measures-of-deprivation</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f t="shared" ref="J30" si="2">_xlfn.CONCAT("#",I30)</f>
-        <v>#children-in-low-income-households</v>
+        <f>_xlfn.CONCAT("#",I30)</f>
+        <v>#census-measures-of-deprivation</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="I31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>pension-credit</v>
+        <v>education-introduction</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f t="shared" ref="J31" si="3">_xlfn.CONCAT("#",I31)</f>
-        <v>#pension-credit</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="391.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>#education-introduction</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D32" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>census-measures-of-deprivation</v>
+        <v>early-years-providers</v>
       </c>
       <c r="J32" s="7" t="str">
-        <f>_xlfn.CONCAT("#",I32)</f>
-        <v>#census-measures-of-deprivation</v>
+        <f t="shared" si="1"/>
+        <v>#early-years-providers</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
+      <c r="B33" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="I33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>education-introduction</v>
+        <v>early-years-ofsted-ratings</v>
       </c>
       <c r="J33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#education-introduction</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>#early-years-ofsted-ratings</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" s="10">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>early-years-providers</v>
+        <v>early-years-areas-of-learning-performance</v>
       </c>
       <c r="J34" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#early-years-providers</v>
+        <v>#early-years-areas-of-learning-performance</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D35" s="10">
         <v>2022</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="I35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>early-years-ofsted-ratings</v>
+        <v>key-stage-2-performance</v>
       </c>
       <c r="J35" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#early-years-ofsted-ratings</v>
+        <v>#key-stage-2-performance</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D36" s="10">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>early-years-areas-of-learning-performance</v>
+        <v>key-stage-4-performance</v>
       </c>
       <c r="J36" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#early-years-areas-of-learning-performance</v>
+        <v>#key-stage-4-performance</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D37" s="10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>key-stage-2-performance</v>
+        <v>key-stage-4-performance-by-ethnicity</v>
       </c>
       <c r="J37" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#key-stage-2-performance</v>
+        <v>#key-stage-4-performance-by-ethnicity</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D38" s="10">
         <v>2022</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>key-stage-4-performance</v>
+        <v>key-stage-4-performance-gap</v>
       </c>
       <c r="J38" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#key-stage-4-performance</v>
+        <v>#key-stage-4-performance-gap</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D39" s="10">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>key-stage-4-performance-by-ethnicity</v>
+        <v>key-stage-5-progression</v>
       </c>
       <c r="J39" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#key-stage-4-performance-by-ethnicity</v>
+        <v>#key-stage-5-progression</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D40" s="10">
         <v>2022</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>key-stage-4-performance-gap</v>
+        <v>neet-16-17-year-olds</v>
       </c>
       <c r="J40" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#key-stage-4-performance-gap</v>
+        <v>#neet-16-17-year-olds</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D41" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>key-stage-5-progression</v>
+        <v>education-funding</v>
       </c>
       <c r="J41" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>#key-stage-5-progression</v>
+        <v>#education-funding</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="C42" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>neet-16-17-year-olds</v>
+        <f t="shared" ref="I42:I65" si="4">LOWER(SUBSTITUTE(C42," ","-"))</f>
+        <v>health-and-wellbeing-introduction</v>
       </c>
       <c r="J42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#neet-16-17-year-olds</v>
+        <f t="shared" ref="J42:J65" si="5">_xlfn.CONCAT("#",I42)</f>
+        <v>#health-and-wellbeing-introduction</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D43" s="10">
         <v>2022</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>childhood-vaccinations</v>
+      </c>
+      <c r="J43" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#childhood-vaccinations</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthy-weight---reception</v>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#healthy-weight---reception</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="7" t="s">
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="I43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>education-funding</v>
-      </c>
-      <c r="J43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#education-funding</v>
-      </c>
-      <c r="K43" s="7" t="s">
+      <c r="D45" s="17">
+        <v>2022</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
-        <v>42</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>health-and-wellbeing-introduction</v>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#health-and-wellbeing-introduction</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="I45" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>healthy-weight---year-6</v>
+      </c>
+      <c r="J45" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#healthy-weight---year-6</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>childhood-vaccinations</v>
-      </c>
-      <c r="J45" s="7" t="str">
-        <f t="shared" ref="J45:J104" si="4">_xlfn.CONCAT("#",I45)</f>
-        <v>#childhood-vaccinations</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="10">
+        <v>167</v>
+      </c>
+      <c r="D46" s="17">
         <v>2022</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="H46" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>healthy-weight---reception</v>
+        <f t="shared" si="4"/>
+        <v>good-level-of-development---age-5</v>
       </c>
       <c r="J46" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#healthy-weight---reception</v>
+        <f t="shared" si="5"/>
+        <v>#good-level-of-development---age-5</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>wellbeing---resident-survey</v>
+      </c>
+      <c r="J47" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#wellbeing---resident-survey</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="17">
-        <v>2022</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16" t="s">
+      <c r="I48" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>personal-wellbeing---happiness</v>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#personal-wellbeing---happiness</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="7" t="s">
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <f>A47+1</f>
+        <v>46</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>healthy-weight---year-6</v>
-      </c>
-      <c r="J47" s="7" t="str">
+      <c r="D49" s="17">
+        <v>2021</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>#healthy-weight---year-6</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
-        <v>46</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="17">
-        <v>2022</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16" t="s">
+        <v>sexual-health</v>
+      </c>
+      <c r="J49" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#sexual-health</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>47</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>good-level-of-development---age-5</v>
-      </c>
-      <c r="J48" s="7" t="str">
+      <c r="D50" s="17">
+        <v>2021</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I50" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>#good-level-of-development---age-5</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
-        <v>47</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="7" t="s">
+        <v>physical-exercise</v>
+      </c>
+      <c r="J50" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#physical-exercise</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I49" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>wellbeing---resident-survey</v>
-      </c>
-      <c r="J49" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#wellbeing---resident-survey</v>
-      </c>
-      <c r="K49" s="7" t="s">
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>48</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I50" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>personal-wellbeing---happiness</v>
-      </c>
-      <c r="J50" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#personal-wellbeing---happiness</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
-        <f>A49+1</f>
-        <v>48</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="D51" s="17">
         <v>2021</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I51" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>sexual-health</v>
+        <f t="shared" si="4"/>
+        <v>healthy-weight</v>
       </c>
       <c r="J51" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#sexual-health</v>
+        <f t="shared" si="5"/>
+        <v>#healthy-weight</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <f>A51+1</f>
         <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D52" s="17">
         <v>2021</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="I52" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>physical-exercise</v>
+        <f t="shared" si="4"/>
+        <v>smoking</v>
       </c>
       <c r="J52" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#physical-exercise</v>
+        <f t="shared" si="5"/>
+        <v>#smoking</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
-        <f t="shared" ref="A53:A104" si="5">A52+1</f>
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D53" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="I53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>healthy-weight</v>
+        <f t="shared" si="4"/>
+        <v>high-blood-pressure</v>
       </c>
       <c r="J53" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#healthy-weight</v>
+        <f t="shared" si="5"/>
+        <v>#high-blood-pressure</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
-        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>202</v>
+        <v>374</v>
       </c>
       <c r="D54" s="17">
-        <v>2021</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>168</v>
+        <v>2023</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="16" t="s">
-        <v>203</v>
+        <v>367</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="I54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>smoking</v>
+        <f t="shared" si="4"/>
+        <v>drug-and-alcohol-misuse</v>
       </c>
       <c r="J54" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#smoking</v>
+        <f t="shared" si="5"/>
+        <v>#drug-and-alcohol-misuse</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
-        <f t="shared" si="5"/>
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="D55" s="17">
         <v>2022</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>168</v>
+      <c r="E55" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>208</v>
+        <v>389</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="I55" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>high-blood-pressure</v>
+        <f t="shared" si="4"/>
+        <v>diabetes</v>
       </c>
       <c r="J55" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#high-blood-pressure</v>
+        <f t="shared" si="5"/>
+        <v>#diabetes</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
-        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D56" s="17">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>381</v>
+        <v>156</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>383</v>
+        <v>393</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="I56" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>drug-and-alcohol-misuse</v>
+        <f t="shared" si="4"/>
+        <v>depression</v>
       </c>
       <c r="J56" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#drug-and-alcohol-misuse</v>
+        <f t="shared" si="5"/>
+        <v>#depression</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2022</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="I57" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>coronary-heart-disease</v>
+      </c>
+      <c r="J57" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" s="17">
-        <v>2021</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="I57" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>life-expectancy-at-birth</v>
-      </c>
-      <c r="J57" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#life-expectancy-at-birth</v>
+        <v>#coronary-heart-disease</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="17">
+        <v>2021</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="I58" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>life-expectancy-at-birth</v>
+      </c>
+      <c r="J58" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="10">
+        <v>#life-expectancy-at-birth</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>56</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="10">
         <v>2020</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I58" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="E59" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>healthy-life-expectancy</v>
       </c>
-      <c r="J58" s="7" t="str">
+      <c r="J59" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#healthy-life-expectancy</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
+        <v>57</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" s="10">
+        <v>2021</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>#healthy-life-expectancy</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8">
+        <v>deaths-under-75-from-preventable-causes</v>
+      </c>
+      <c r="J60" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D59" s="10">
-        <v>2021</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I59" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>deaths-under-75-from-preventable-causes</v>
-      </c>
-      <c r="J59" s="7" t="str">
+        <v>#deaths-under-75-from-preventable-causes</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12">
+        <v>58</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I61" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>#deaths-under-75-from-preventable-causes</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8">
+        <v>covid-deaths-per-capita</v>
+      </c>
+      <c r="J61" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>covid-deaths-per-capita</v>
-      </c>
-      <c r="J60" s="7" t="str">
-        <f t="shared" si="4"/>
         <v>#covid-deaths-per-capita</v>
       </c>
-      <c r="K60" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D61" s="10">
-        <v>2021</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="I61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>preventable-mortality---cancer</v>
-      </c>
-      <c r="J61" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#preventable-mortality---cancer</v>
-      </c>
       <c r="K61" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
-        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D62" s="10">
         <v>2021</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="24" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="I62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>preventable-mortality---cardiovascular-disease</v>
+        <f t="shared" si="4"/>
+        <v>preventable-mortality---cancer</v>
       </c>
       <c r="J62" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#preventable-mortality---cardiovascular-disease</v>
+        <f t="shared" si="5"/>
+        <v>#preventable-mortality---cancer</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="8">
-        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12">
         <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D63" s="10">
         <v>2021</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="24" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="I63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>preventable-mortality---liver-disease</v>
+        <f t="shared" si="4"/>
+        <v>preventable-mortality---cardiovascular-disease</v>
       </c>
       <c r="J63" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#preventable-mortality---liver-disease</v>
+        <f t="shared" si="5"/>
+        <v>#preventable-mortality---cardiovascular-disease</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
-        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D64" s="10">
         <v>2021</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="24" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="I64" s="7" t="str">
-        <f t="shared" ref="I64:I104" si="6">LOWER(SUBSTITUTE(C64," ","-"))</f>
+        <f t="shared" si="4"/>
+        <v>preventable-mortality---liver-disease</v>
+      </c>
+      <c r="J64" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>#preventable-mortality---liver-disease</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12">
+        <v>62</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2021</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>preventable-mortality---respiratory-disease</v>
       </c>
-      <c r="J64" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J65" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>#preventable-mortality---respiratory-disease</v>
       </c>
-      <c r="K64" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" s="14"/>
-      <c r="I65" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="K65" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>63</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="I66" s="7" t="str">
+        <f t="shared" ref="I66:I105" si="6">LOWER(SUBSTITUTE(C66," ","-"))</f>
         <v>crime-safety-and-justice-introduction</v>
       </c>
-      <c r="J65" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J66" s="7" t="str">
+        <f t="shared" ref="J66:J105" si="7">_xlfn.CONCAT("#",I66)</f>
         <v>#crime-safety-and-justice-introduction</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="10">
+      <c r="K66" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>64</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="10">
         <v>2022</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I66" s="7" t="str">
+      <c r="E67" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="7" t="str">
         <f t="shared" si="6"/>
         <v>overall-crime-rate</v>
       </c>
-      <c r="J66" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J67" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#overall-crime-rate</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="10">
+      <c r="K67" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>65</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" s="10">
         <v>2022</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I67" s="7" t="str">
+      <c r="E68" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="7" t="str">
         <f t="shared" si="6"/>
         <v>violent-crime-rate</v>
       </c>
-      <c r="J67" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J68" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#violent-crime-rate</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
-        <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" s="10">
+      <c r="K68" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>66</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="10">
         <v>2022</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I68" s="7" t="str">
+      <c r="E69" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" s="7" t="str">
         <f t="shared" si="6"/>
         <v>knife-crime-rate</v>
       </c>
-      <c r="J68" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J69" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#knife-crime-rate</v>
       </c>
-      <c r="K68" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D69" s="10">
+      <c r="K69" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>67</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="10">
         <v>2022</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I69" s="7" t="str">
+      <c r="E70" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I70" s="7" t="str">
         <f t="shared" si="6"/>
         <v>knife-crime-rate-with-victims-younger-than-25</v>
       </c>
-      <c r="J69" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J70" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#knife-crime-rate-with-victims-younger-than-25</v>
       </c>
-      <c r="K69" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D70" s="10">
+    </row>
+    <row r="71" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>68</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="10">
         <v>2022</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I70" s="7" t="str">
+      <c r="I71" s="7" t="str">
         <f t="shared" si="6"/>
         <v>domestic-abuse-crime-rate</v>
       </c>
-      <c r="J70" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J71" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#domestic-abuse-crime-rate</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="8">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71" s="10">
+      <c r="K71" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>69</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="10">
         <v>2022</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I71" s="7" t="str">
+      <c r="E72" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" s="7" t="str">
         <f t="shared" si="6"/>
         <v>hate-crime-rate</v>
       </c>
-      <c r="J71" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J72" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#hate-crime-rate</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A72" s="8">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" s="10">
+      <c r="K72" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>70</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" s="10">
         <v>2022</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I72" s="7" t="str">
+      <c r="E73" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I73" s="7" t="str">
         <f t="shared" si="6"/>
         <v>drug-related-crime-rate</v>
       </c>
-      <c r="J72" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J73" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#drug-related-crime-rate</v>
       </c>
-      <c r="K72" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A73" s="8">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="K73" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>71</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="10">
         <v>2022</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I73" s="7" t="str">
+      <c r="E74" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I74" s="7" t="str">
         <f t="shared" si="6"/>
         <v>domestic-burglary-crime-rate</v>
       </c>
-      <c r="J73" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J74" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#domestic-burglary-crime-rate</v>
       </c>
-      <c r="K73" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A74" s="8">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="K74" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>72</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="10">
         <v>2022</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I74" s="7" t="str">
+      <c r="E75" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I75" s="7" t="str">
         <f t="shared" si="6"/>
         <v>anti-social-behaviour</v>
       </c>
-      <c r="J74" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J75" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#anti-social-behaviour</v>
       </c>
-      <c r="K74" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="8">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="K75" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>73</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="10">
         <v>2021</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I75" s="7" t="str">
+      <c r="E76" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I76" s="7" t="str">
         <f t="shared" si="6"/>
         <v>reoffending-rates</v>
       </c>
-      <c r="J75" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J76" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#reoffending-rates</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A76" s="8">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D76" s="10">
+      <c r="K76" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <v>74</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="10">
         <v>2022</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I76" s="7" t="str">
+      <c r="E77" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I77" s="7" t="str">
         <f t="shared" si="6"/>
         <v>stop-and-search</v>
       </c>
-      <c r="J76" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J77" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#stop-and-search</v>
       </c>
-      <c r="K76" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="K77" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>75</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="10">
         <v>2022</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I77" s="7" t="str">
+      <c r="E78" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="7" t="str">
         <f t="shared" si="6"/>
         <v>public-perception-of-police</v>
       </c>
-      <c r="J77" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J78" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#public-perception-of-police</v>
       </c>
-      <c r="K77" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="8">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D78" s="10">
+      <c r="K78" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
+        <v>76</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="10">
         <v>2022</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="I78" s="7" t="str">
+      <c r="E79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I79" s="7" t="str">
         <f t="shared" si="6"/>
         <v>resident-survey-perception-of-safety</v>
       </c>
-      <c r="J78" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J79" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#resident-survey-perception-of-safety</v>
       </c>
-      <c r="K78" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="8">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="10">
+      <c r="K79" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>77</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="10">
         <v>2021</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I79" s="7" t="str">
+      <c r="E80" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I80" s="7" t="str">
         <f t="shared" si="6"/>
         <v>traffic-incidents</v>
       </c>
-      <c r="J79" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J80" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#traffic-incidents</v>
       </c>
-      <c r="K79" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="8">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="I80" s="7" t="str">
+      <c r="K80" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>78</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="I81" s="7" t="str">
         <f t="shared" si="6"/>
         <v>environment-introduction</v>
       </c>
-      <c r="J80" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J81" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#environment-introduction</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A81" s="8">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D81" s="10">
+    <row r="82" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>79</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="10">
         <v>2020</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="I81" s="7" t="str">
+      <c r="E82" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" s="7" t="str">
         <f t="shared" si="6"/>
         <v>greenhouse-gas-emissions</v>
       </c>
-      <c r="J81" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J82" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#greenhouse-gas-emissions</v>
       </c>
-      <c r="K81" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="174" x14ac:dyDescent="0.35">
-      <c r="A82" s="8">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" s="10">
+      <c r="K82" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <v>80</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="10">
         <v>2019</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I82" s="7" t="str">
+      <c r="E83" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="7" t="str">
         <f t="shared" si="6"/>
         <v>pollutant-concentrations</v>
       </c>
-      <c r="J82" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J83" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#pollutant-concentrations</v>
       </c>
-      <c r="K82" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="8">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" s="10">
+      <c r="K83" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>81</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="10">
         <v>2021</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="I83" s="7" t="str">
+      <c r="E84" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I84" s="7" t="str">
         <f t="shared" si="6"/>
         <v>recycling-rates</v>
       </c>
-      <c r="J83" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J84" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#recycling-rates</v>
       </c>
-      <c r="K83" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A84" s="8">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D84" s="10">
+    </row>
+    <row r="85" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>82</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D85" s="10">
         <v>2022</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I84" s="7" t="str">
+      <c r="E85" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I85" s="7" t="str">
         <f t="shared" si="6"/>
         <v>energy-performance-certificate-ratings</v>
       </c>
-      <c r="J84" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J85" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#energy-performance-certificate-ratings</v>
       </c>
-      <c r="K84" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="8">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D85" s="10">
+      <c r="K85" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>83</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D86" s="10">
         <v>2021</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="I85" s="7" t="str">
+      <c r="E86" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I86" s="7" t="str">
         <f t="shared" si="6"/>
         <v>solar-panel-installations</v>
       </c>
-      <c r="J85" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J86" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#solar-panel-installations</v>
       </c>
-      <c r="K85" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="8">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D86" s="10">
+      <c r="K86" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>84</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="10">
         <v>2020</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="I86" s="7" t="str">
+      <c r="G87" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I87" s="7" t="str">
         <f t="shared" si="6"/>
         <v>access-to-public-green-space</v>
       </c>
-      <c r="J86" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J87" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#access-to-public-green-space</v>
       </c>
-      <c r="K86" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="8">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="K87" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>85</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" s="10">
         <v>2018</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="I87" s="7" t="str">
+      <c r="E88" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I88" s="7" t="str">
         <f t="shared" si="6"/>
         <v>tree-canopy-cover</v>
       </c>
-      <c r="J87" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J88" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#tree-canopy-cover</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="8">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="K88" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>86</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" s="10">
         <v>2021</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G89" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="I88" s="7" t="str">
+      <c r="H89" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I89" s="7" t="str">
         <f t="shared" si="6"/>
         <v>method-of-travel-to-work</v>
       </c>
-      <c r="J88" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J89" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#method-of-travel-to-work</v>
       </c>
-      <c r="K88" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="8">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G89" s="14"/>
-      <c r="I89" s="7" t="str">
+      <c r="K89" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>87</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="I90" s="7" t="str">
         <f t="shared" si="6"/>
         <v>housing-and-infrastructure-introduction</v>
       </c>
-      <c r="J89" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J90" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#housing-and-infrastructure-introduction</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A90" s="8">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D90" s="10">
+    <row r="91" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <v>88</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" s="10">
         <v>2021</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I90" s="7" t="str">
+      <c r="G91" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I91" s="7" t="str">
         <f t="shared" si="6"/>
         <v>tenure-type</v>
       </c>
-      <c r="J90" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J91" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#tenure-type</v>
       </c>
-      <c r="K90" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="8">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D91" s="10">
+      <c r="K91" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>89</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="10">
         <v>2022</v>
       </c>
-      <c r="E91" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="I91" s="7" t="str">
+      <c r="E92" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I92" s="7" t="str">
         <f t="shared" si="6"/>
         <v>dwelling-type</v>
       </c>
-      <c r="J91" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J92" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#dwelling-type</v>
       </c>
-      <c r="K91" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="8">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D92" s="10">
+      <c r="K92" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <v>90</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="10">
         <v>2022</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I92" s="7" t="str">
+      <c r="G93" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I93" s="7" t="str">
         <f t="shared" si="6"/>
         <v>house-prices</v>
       </c>
-      <c r="J92" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J93" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#house-prices</v>
       </c>
-      <c r="K92" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="8">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="K93" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>91</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" s="10">
         <v>2021</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="I93" s="7" t="str">
+      <c r="G94" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I94" s="7" t="str">
         <f t="shared" si="6"/>
         <v>council-tax-bands</v>
       </c>
-      <c r="J93" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J94" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#council-tax-bands</v>
       </c>
-      <c r="K93" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A94" s="8">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="K94" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D94" s="10">
+    </row>
+    <row r="95" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>92</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="10">
         <v>2015</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I94" s="7" t="str">
+      <c r="E95" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="I95" s="7" t="str">
         <f t="shared" si="6"/>
         <v>public-transport-accessibility</v>
       </c>
-      <c r="J94" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J95" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#public-transport-accessibility</v>
       </c>
-      <c r="K94" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A95" s="8">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D95" s="10">
+      <c r="K95" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>93</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" s="10">
         <v>2021</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="I95" s="7" t="str">
+      <c r="E96" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I96" s="7" t="str">
         <f t="shared" si="6"/>
         <v>road-traffic</v>
       </c>
-      <c r="J95" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J96" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#road-traffic</v>
       </c>
-      <c r="K95" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="8">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="I96" s="7" t="str">
+      <c r="K96" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <v>94</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="I97" s="7" t="str">
         <f t="shared" si="6"/>
         <v>community-introduction</v>
       </c>
-      <c r="J96" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J97" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#community-introduction</v>
       </c>
-      <c r="K96" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="145" x14ac:dyDescent="0.35">
-      <c r="A97" s="8">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D97" s="10">
+      <c r="K97" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>95</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D98" s="10">
         <v>2022</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="I97" s="7" t="str">
+      <c r="E98" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I98" s="7" t="str">
         <f t="shared" si="6"/>
         <v>resident-survey-results---overall-and-council</v>
       </c>
-      <c r="J97" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J98" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#resident-survey-results---overall-and-council</v>
       </c>
-      <c r="K97" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M97" s="7"/>
-    </row>
-    <row r="98" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="8">
-        <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D98" s="10">
+      <c r="K98" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>96</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" s="10">
         <v>2022</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I98" s="7" t="str">
+      <c r="E99" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I99" s="7" t="str">
         <f t="shared" si="6"/>
         <v>resident-survey-results---improving-the-area</v>
       </c>
-      <c r="J98" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J99" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#resident-survey-results---improving-the-area</v>
       </c>
-      <c r="K98" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L98" s="7"/>
-    </row>
-    <row r="99" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A99" s="8">
-        <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="K99" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>97</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100" s="10">
         <v>2022</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="I99" s="7" t="str">
+      <c r="E100" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I100" s="7" t="str">
         <f t="shared" si="6"/>
         <v>resident-survey-results---local-area</v>
       </c>
-      <c r="J99" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J100" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#resident-survey-results---local-area</v>
       </c>
-      <c r="K99" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-    </row>
-    <row r="100" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="8">
-        <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D100" s="10">
+      <c r="K100" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>98</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101" s="10">
         <v>2021</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="I100" s="7" t="str">
+      <c r="G101" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I101" s="7" t="str">
         <f t="shared" si="6"/>
         <v>electoral-registration</v>
       </c>
-      <c r="J100" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J101" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#electoral-registration</v>
       </c>
-      <c r="K100" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="8">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="K101" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D101" s="10">
+    </row>
+    <row r="102" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>99</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D102" s="10">
         <v>2022</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="I101" s="7" t="str">
+      <c r="E102" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I102" s="7" t="str">
         <f t="shared" si="6"/>
         <v>local-election-turnout</v>
       </c>
-      <c r="J101" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J102" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#local-election-turnout</v>
       </c>
-      <c r="K101" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A102" s="8">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D102" s="10">
+      <c r="K102" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>100</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" s="10">
         <v>2020</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="I102" s="7" t="str">
+      <c r="G103" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I103" s="7" t="str">
         <f t="shared" si="6"/>
         <v>internet-users</v>
       </c>
-      <c r="J102" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J103" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#internet-users</v>
       </c>
-      <c r="K102" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="8">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D103" s="10">
+      <c r="K103" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>101</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D104" s="10">
         <v>2022</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="I103" s="7" t="str">
+      <c r="E104" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I104" s="7" t="str">
         <f t="shared" si="6"/>
         <v>internet-users---resident-survey</v>
       </c>
-      <c r="J103" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J104" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#internet-users---resident-survey</v>
       </c>
-      <c r="K103" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A104" s="8">
-        <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="G104" s="14"/>
-      <c r="I104" s="7" t="str">
+      <c r="K104" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <v>102</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="I105" s="7" t="str">
         <f t="shared" si="6"/>
         <v>data-sources</v>
       </c>
-      <c r="J104" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J105" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>#data-sources</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E105" s="10"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E106" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G25" r:id="rId1" xr:uid="{71CB0044-3550-4526-BC6E-BF8D018157D3}"/>
-    <hyperlink ref="G26" r:id="rId2" xr:uid="{0D11FF74-EA7A-46BC-84A0-FE5FE81E7C9C}"/>
-    <hyperlink ref="F25" r:id="rId3" xr:uid="{615E49D9-6AC7-4D65-A90F-04DB3CBE2007}"/>
-    <hyperlink ref="F26" r:id="rId4" xr:uid="{45769776-D37D-425C-BC26-CCB62EB956A3}"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{71CB0044-3550-4526-BC6E-BF8D018157D3}"/>
+    <hyperlink ref="G24" r:id="rId2" xr:uid="{0D11FF74-EA7A-46BC-84A0-FE5FE81E7C9C}"/>
+    <hyperlink ref="F23" r:id="rId3" xr:uid="{615E49D9-6AC7-4D65-A90F-04DB3CBE2007}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{45769776-D37D-425C-BC26-CCB62EB956A3}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{351E22CE-AC3B-4FF7-A61E-45D15D65A16E}"/>
     <hyperlink ref="G6" r:id="rId6" xr:uid="{4C61D3BB-2A6E-4812-9A19-978FFAEDB77E}"/>
     <hyperlink ref="G7" r:id="rId7" xr:uid="{5BEA3353-6451-4304-87FF-72727D8F0322}"/>
@@ -5272,68 +5302,58 @@
     <hyperlink ref="G15" r:id="rId9" xr:uid="{6C31F9D7-263F-46D7-B63B-161FBD1E934D}"/>
     <hyperlink ref="G10" r:id="rId10" xr:uid="{9243BBAE-91D9-4291-89D5-20B3DA1C26E6}"/>
     <hyperlink ref="G9" r:id="rId11" xr:uid="{ADD359CE-3315-442E-B50D-5877AAD64B0D}"/>
-    <hyperlink ref="G88" r:id="rId12" xr:uid="{ED47DF1C-F425-4694-90E9-1FDFE85D42E0}"/>
+    <hyperlink ref="G89" r:id="rId12" xr:uid="{ED47DF1C-F425-4694-90E9-1FDFE85D42E0}"/>
     <hyperlink ref="G11" r:id="rId13" xr:uid="{5DFB4E02-9609-48D7-98DE-BEED2016CC9D}"/>
     <hyperlink ref="G8" r:id="rId14" xr:uid="{306009B9-67E9-42BF-A0E6-82F442B592F2}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{0DF09553-14C6-4217-88E3-F5245CA62B64}"/>
-    <hyperlink ref="G66" r:id="rId16" xr:uid="{00CEFB10-34B5-4BB2-B909-A0FF1E20D96A}"/>
-    <hyperlink ref="G67" r:id="rId17" xr:uid="{DDC1D92E-59B9-48D5-AB24-2231A32C15C4}"/>
-    <hyperlink ref="G71" r:id="rId18" xr:uid="{246ACD5F-29D0-4674-ABA7-62EB781D8DC8}"/>
-    <hyperlink ref="G83" r:id="rId19" xr:uid="{C89D75CA-4CB7-432F-9B31-1B81AC4F0707}"/>
-    <hyperlink ref="G87" r:id="rId20" xr:uid="{35867C5C-7BC8-470D-A8A2-1E30E3260E9B}"/>
+    <hyperlink ref="G22" r:id="rId15" xr:uid="{0DF09553-14C6-4217-88E3-F5245CA62B64}"/>
+    <hyperlink ref="G67" r:id="rId16" xr:uid="{00CEFB10-34B5-4BB2-B909-A0FF1E20D96A}"/>
+    <hyperlink ref="G68" r:id="rId17" xr:uid="{DDC1D92E-59B9-48D5-AB24-2231A32C15C4}"/>
+    <hyperlink ref="G72" r:id="rId18" xr:uid="{246ACD5F-29D0-4674-ABA7-62EB781D8DC8}"/>
+    <hyperlink ref="G84" r:id="rId19" xr:uid="{C89D75CA-4CB7-432F-9B31-1B81AC4F0707}"/>
+    <hyperlink ref="G88" r:id="rId20" xr:uid="{35867C5C-7BC8-470D-A8A2-1E30E3260E9B}"/>
     <hyperlink ref="G12" r:id="rId21" xr:uid="{D2093666-A6DF-4FDE-A493-7B104DEAB349}"/>
     <hyperlink ref="G13" r:id="rId22" xr:uid="{B07705E2-4299-4D51-8751-BDF199E3708E}"/>
-    <hyperlink ref="G90" r:id="rId23" xr:uid="{91EF0389-E39A-483D-A49C-8723357272BD}"/>
-    <hyperlink ref="G76" r:id="rId24" xr:uid="{11D5CF9F-1854-4393-9CF6-0F7FCFAA5F8F}"/>
-    <hyperlink ref="G79" r:id="rId25" xr:uid="{1A6DE16B-98A5-4874-9CDD-6C38B28E269E}"/>
-    <hyperlink ref="G100" r:id="rId26" xr:uid="{75F090A1-59B0-4427-B568-781C58942D81}"/>
-    <hyperlink ref="G92" r:id="rId27" xr:uid="{ED6BF665-C78F-4B48-B3F6-F5FD4531826D}"/>
-    <hyperlink ref="G91" r:id="rId28" xr:uid="{90EB0F31-8C61-47E9-A55B-0BC257B5B05E}"/>
-    <hyperlink ref="G21" r:id="rId29" xr:uid="{408D34C1-509E-40FC-BFEE-A463C4A4274B}"/>
-    <hyperlink ref="G70" r:id="rId30" xr:uid="{F51BDF5F-E5A3-4F0A-B3A8-74E2C5E73A9B}"/>
-    <hyperlink ref="G34" r:id="rId31" xr:uid="{C8ACE024-E7A1-4E66-BB37-A9E47655E075}"/>
-    <hyperlink ref="G29" r:id="rId32" display="https://www.trustforlondon.org.uk/data/topics/living-standards/" xr:uid="{55918F9E-BDAC-4D36-B6B5-4A00416A4520}"/>
-    <hyperlink ref="F76" r:id="rId33" xr:uid="{C08426BD-102B-4D9D-9C29-86149025FA60}"/>
-    <hyperlink ref="G50" r:id="rId34" xr:uid="{3D694CA2-9E9E-45C5-83BB-8BA3213AFADD}"/>
-    <hyperlink ref="G60" r:id="rId35" xr:uid="{D68C18A6-7527-4405-872E-E7F588CCE68B}"/>
-    <hyperlink ref="G49" r:id="rId36" xr:uid="{02115E8E-7C4D-44D8-B69A-8828B45B4551}"/>
-    <hyperlink ref="G59" r:id="rId37" location="page/4/gid/1000044/pat/6/ati/401/are/E09000022/iid/93721/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1" xr:uid="{DD1FDD19-586F-48C8-AA9A-A143808C6578}"/>
-    <hyperlink ref="G46" r:id="rId38" location="page/4/gid/8000011/pat/6/ati/402/are/E09000022/iid/20601/age/200/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1" xr:uid="{A8FABDE3-46B0-4F2F-8A3E-8C368DCE40AD}"/>
-    <hyperlink ref="G47" r:id="rId39" location="page/4/gid/8000011/pat/6/ati/402/are/E09000022/iid/20602/age/201/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1" xr:uid="{C303BE21-35FE-4773-8CA5-DF1EB9A0C934}"/>
-    <hyperlink ref="G48" r:id="rId40" location="page/4/gid/1938133258/pat/6/par/E12000007/ati/302/are/E09000022/iid/90631/age/34/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{054E050A-98AE-4EFF-86D9-7AD0683ACAC4}"/>
-    <hyperlink ref="G51" r:id="rId41" location="page/4/gid/1/pat/6/par/E12000007/ati/402/are/E09000022/iid/91523/age/1/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{F4699B30-2FE0-49F4-A97F-2A80D1A3A237}"/>
-    <hyperlink ref="G54" r:id="rId42" location="page/4/gid/1938132886/pat/6/par/E12000007/ati/402/are/E09000022/iid/91547/age/188/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{6C2015EF-2508-4B70-AD06-918B31212506}"/>
-    <hyperlink ref="G55" r:id="rId43" location="page/4/gid/1938133001/pat/15/par/E92000001/ati/402/are/E09000022/iid/219/age/1/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{C4541972-CF60-4B66-972D-E475E40E42FF}"/>
-    <hyperlink ref="G58" r:id="rId44" location="page/4/gid/1000049/pat/6/par/E12000007/ati/102/are/E09000022/iid/90362/age/1/sex/1/cat/-1/ctp/-1/yrr/3/cid/4/tbm/1/page-options/car-do-0" xr:uid="{0CEF1DC8-5859-4668-B57E-7E5612FFD5B0}"/>
-    <hyperlink ref="G61" r:id="rId45" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93723/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{D7BB5F78-B652-4502-8C3B-7E2A52C70C39}"/>
-    <hyperlink ref="G62" r:id="rId46" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93722/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{E92A111C-B05E-4452-9233-6DCA36D23B28}"/>
-    <hyperlink ref="G63" r:id="rId47" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93720/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{C0627377-2432-4EAD-A7C8-73584BB31E38}"/>
-    <hyperlink ref="G64" r:id="rId48" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93724/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{14900D60-065A-41B0-B65E-05F0CDEA4096}"/>
-    <hyperlink ref="G52" r:id="rId49" location="page/4/gid/1938132899/pat/15/par/E92000001/ati/402/are/E09000022/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{EEF27D22-987A-48E9-B508-9243B03B07F5}"/>
-    <hyperlink ref="G53" r:id="rId50" location="page/4/gid/1938133001/pat/15/par/E92000001/ati/402/are/E09000022/iid/93088/age/168/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{404F02B2-DBF9-442E-924B-B5F4F806E20D}"/>
-    <hyperlink ref="G68" r:id="rId51" xr:uid="{39E3799A-FE90-4857-AD7B-DA20CEB85455}"/>
-    <hyperlink ref="G69" r:id="rId52" xr:uid="{5B7CE1FA-8C54-4FC3-B712-C908487B2CA7}"/>
-    <hyperlink ref="G72" r:id="rId53" xr:uid="{CEF01504-E838-4C7B-B040-1F015D01DC5E}"/>
-    <hyperlink ref="G73" r:id="rId54" xr:uid="{C82033C7-8D54-4727-B307-E0E3AAF5E3C7}"/>
-    <hyperlink ref="G45" r:id="rId55" location="page/4/gid/1/pat/6/par/E12000007/ati/402/are/E09000022/iid/30309/age/31/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{9C1F8B5E-AB86-4A4F-B8F7-E08FCA90EB13}"/>
-    <hyperlink ref="G81" r:id="rId56" xr:uid="{064865D0-4D12-4551-BE9D-291CCEBD6CBD}"/>
-    <hyperlink ref="G57" r:id="rId57" location="page/4/gid/1000049/pat/6/par/E12000007/ati/102/are/E09000022/iid/90366/age/1/sex/1/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0 " xr:uid="{E959D4E6-9FF1-4A19-96D2-38AE792EEC7D}"/>
+    <hyperlink ref="G91" r:id="rId23" xr:uid="{91EF0389-E39A-483D-A49C-8723357272BD}"/>
+    <hyperlink ref="G77" r:id="rId24" xr:uid="{11D5CF9F-1854-4393-9CF6-0F7FCFAA5F8F}"/>
+    <hyperlink ref="G80" r:id="rId25" xr:uid="{1A6DE16B-98A5-4874-9CDD-6C38B28E269E}"/>
+    <hyperlink ref="G101" r:id="rId26" xr:uid="{75F090A1-59B0-4427-B568-781C58942D81}"/>
+    <hyperlink ref="G93" r:id="rId27" xr:uid="{ED6BF665-C78F-4B48-B3F6-F5FD4531826D}"/>
+    <hyperlink ref="G92" r:id="rId28" xr:uid="{90EB0F31-8C61-47E9-A55B-0BC257B5B05E}"/>
+    <hyperlink ref="G71" r:id="rId29" xr:uid="{F51BDF5F-E5A3-4F0A-B3A8-74E2C5E73A9B}"/>
+    <hyperlink ref="G32" r:id="rId30" xr:uid="{C8ACE024-E7A1-4E66-BB37-A9E47655E075}"/>
+    <hyperlink ref="G27" r:id="rId31" display="https://www.trustforlondon.org.uk/data/topics/living-standards/" xr:uid="{55918F9E-BDAC-4D36-B6B5-4A00416A4520}"/>
+    <hyperlink ref="F77" r:id="rId32" xr:uid="{C08426BD-102B-4D9D-9C29-86149025FA60}"/>
+    <hyperlink ref="G69" r:id="rId33" xr:uid="{39E3799A-FE90-4857-AD7B-DA20CEB85455}"/>
+    <hyperlink ref="G70" r:id="rId34" xr:uid="{5B7CE1FA-8C54-4FC3-B712-C908487B2CA7}"/>
+    <hyperlink ref="G73" r:id="rId35" xr:uid="{CEF01504-E838-4C7B-B040-1F015D01DC5E}"/>
+    <hyperlink ref="G74" r:id="rId36" xr:uid="{C82033C7-8D54-4727-B307-E0E3AAF5E3C7}"/>
+    <hyperlink ref="G82" r:id="rId37" xr:uid="{064865D0-4D12-4551-BE9D-291CCEBD6CBD}"/>
+    <hyperlink ref="G58" r:id="rId38" location="page/4/gid/1000049/pat/6/par/E12000007/ati/102/are/E09000022/iid/90366/age/1/sex/1/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0 " xr:uid="{6E625380-A02F-477D-8334-147202F51BDD}"/>
+    <hyperlink ref="G43" r:id="rId39" location="page/4/gid/1/pat/6/par/E12000007/ati/402/are/E09000022/iid/30309/age/31/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{B402A00D-DAE9-4ACA-897D-7218B4F04CDB}"/>
+    <hyperlink ref="G51" r:id="rId40" location="page/4/gid/1938133001/pat/15/par/E92000001/ati/402/are/E09000022/iid/93088/age/168/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{A97691E9-9811-409A-BB1A-E33728E2280B}"/>
+    <hyperlink ref="G50" r:id="rId41" location="page/4/gid/1938132899/pat/15/par/E92000001/ati/402/are/E09000022/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{1472EF72-8EDC-44BF-AC21-4D4902E4A11F}"/>
+    <hyperlink ref="G65" r:id="rId42" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93724/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{6D19CF1B-2CEB-4BA6-8D03-85371F4D38A7}"/>
+    <hyperlink ref="G64" r:id="rId43" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93720/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{C878D518-EB46-4825-AB7B-F9290965192E}"/>
+    <hyperlink ref="G63" r:id="rId44" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93722/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{6BE20009-5096-441C-B05B-F26F9210936A}"/>
+    <hyperlink ref="G62" r:id="rId45" location="page/4/gid/1938133056/pat/6/par/E12000007/ati/402/are/E09000022/iid/93723/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{AAA01DBC-D26E-44BC-BCED-7E02E183883B}"/>
+    <hyperlink ref="G59" r:id="rId46" location="page/4/gid/1000049/pat/6/par/E12000007/ati/102/are/E09000022/iid/90362/age/1/sex/1/cat/-1/ctp/-1/yrr/3/cid/4/tbm/1/page-options/car-do-0" xr:uid="{0A9E953C-FECB-4B2F-B136-093B6952F382}"/>
+    <hyperlink ref="G53" r:id="rId47" location="page/4/gid/1938133001/pat/15/par/E92000001/ati/402/are/E09000022/iid/219/age/1/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{599A6262-67F8-4305-A5A1-2250156FDCB4}"/>
+    <hyperlink ref="G52" r:id="rId48" location="page/4/gid/1938132886/pat/6/par/E12000007/ati/402/are/E09000022/iid/91547/age/188/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{0D7D2336-2E19-4B7C-AE6B-CC93E4D3F554}"/>
+    <hyperlink ref="G49" r:id="rId49" location="page/4/gid/1/pat/6/par/E12000007/ati/402/are/E09000022/iid/91523/age/1/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{2CEA48F9-030C-4375-92E7-28D0F3D2316A}"/>
+    <hyperlink ref="G46" r:id="rId50" location="page/4/gid/1938133258/pat/6/par/E12000007/ati/302/are/E09000022/iid/90631/age/34/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1/page-options/car-do-0" xr:uid="{389313D4-6C80-4709-8B6F-4DBC44792807}"/>
+    <hyperlink ref="G45" r:id="rId51" location="page/4/gid/8000011/pat/6/ati/402/are/E09000022/iid/20602/age/201/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1" xr:uid="{B8A78C65-6348-45B0-A805-2BF34899D76A}"/>
+    <hyperlink ref="G44" r:id="rId52" location="page/4/gid/8000011/pat/6/ati/402/are/E09000022/iid/20601/age/200/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1" xr:uid="{A4488BFB-B962-4C7D-A17F-9680FBB21401}"/>
+    <hyperlink ref="G60" r:id="rId53" location="page/4/gid/1000044/pat/6/ati/401/are/E09000022/iid/93721/age/163/sex/4/cat/-1/ctp/-1/yrr/1/cid/4/tbm/1" xr:uid="{DE80457C-7BB6-44A4-92D5-E7C8B407C256}"/>
+    <hyperlink ref="G47" r:id="rId54" xr:uid="{80559A87-1C83-4096-BB46-A16B02B6DFB6}"/>
+    <hyperlink ref="G61" r:id="rId55" xr:uid="{061E697B-FEF6-4A62-B711-C2637AA82E47}"/>
+    <hyperlink ref="G48" r:id="rId56" xr:uid="{E4025637-C2E6-491B-BCDC-56E14694B091}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D21FA43D02C144A93636862C106D7E0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b485cd096978ab29bebfa582ab2a5a42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="36fa22c9-99b0-4d6c-b13f-c2885a394772" xmlns:ns3="f3dc68d1-c7e7-41c5-bc1e-27f8873ad3d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7600401377ffebbb162f8bf2186d2e5" ns2:_="" ns3:_="">
     <xsd:import namespace="36fa22c9-99b0-4d6c-b13f-c2885a394772"/>
@@ -5538,7 +5558,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f3dc68d1-c7e7-41c5-bc1e-27f8873ad3d3" xsi:nil="true"/>
@@ -5549,15 +5569,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E75D4AB4-8999-470F-9F5F-BA8283E9C460}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C69BBBE4-1631-495B-B572-5694C5C5DECD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5576,7 +5597,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CB5E0B3-A367-47D0-BA78-E90229C3C6C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5585,4 +5606,12 @@
     <ds:schemaRef ds:uri="36fa22c9-99b0-4d6c-b13f-c2885a394772"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E75D4AB4-8999-470F-9F5F-BA8283E9C460}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>